--- a/app/public/インボイス-パッキングリスト-本社用.xlsx
+++ b/app/public/インボイス-パッキングリスト-本社用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\masuda-vinyl-ops\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7356CDBB-362D-48C9-AAE2-E88AED9535C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948FE8B9-C7A1-4EF8-AD96-720F80407E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13608" yWindow="-22764" windowWidth="21600" windowHeight="19296" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="798" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVOICE" sheetId="1" r:id="rId1"/>
@@ -1658,39 +1658,39 @@
   <numFmts count="35">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;\ \ \ 0.00"/>
-    <numFmt numFmtId="179" formatCode="0.00\ &quot;kg&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.0\ &quot;g&quot;"/>
-    <numFmt numFmtId="181" formatCode="000"/>
-    <numFmt numFmtId="182" formatCode="0\ \ \ "/>
-    <numFmt numFmtId="183" formatCode="0.0\ &quot;kg/巻&quot;"/>
-    <numFmt numFmtId="184" formatCode="0.0\ &quot;kg&quot;"/>
-    <numFmt numFmtId="185" formatCode="0\ \ \ &quot;m&quot;"/>
-    <numFmt numFmtId="186" formatCode="0\ \ \ &quot;pcs&quot;"/>
-    <numFmt numFmtId="187" formatCode="0\ \ &quot;Boxs&quot;"/>
-    <numFmt numFmtId="188" formatCode="0\ \ \ &quot;Pallets&quot;"/>
-    <numFmt numFmtId="189" formatCode="0\ \ &quot;kg&quot;"/>
-    <numFmt numFmtId="191" formatCode="0\ \ &quot;mm&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.0\ \ &quot;kg&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00\ \ &quot;kg&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.0_ "/>
-    <numFmt numFmtId="195" formatCode="0.00\ &quot;g&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.000\ &quot;$&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.00\ &quot;CBM&quot;"/>
-    <numFmt numFmtId="198" formatCode="0\ &quot;本迄&quot;"/>
-    <numFmt numFmtId="199" formatCode="0\ &quot;m/roll&quot;"/>
-    <numFmt numFmtId="200" formatCode="0\ &quot;pcs/Box&quot;"/>
-    <numFmt numFmtId="201" formatCode="0\ \ &quot;g&quot;"/>
-    <numFmt numFmtId="202" formatCode="0\ &quot;bag/box&quot;"/>
-    <numFmt numFmtId="203" formatCode="0\ \ \ &quot;bag&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.0000\ &quot;$&quot;"/>
-    <numFmt numFmtId="205" formatCode="&quot;$&quot;\ \ \ 0.0000"/>
-    <numFmt numFmtId="223" formatCode="0.0000"/>
-    <numFmt numFmtId="224" formatCode="0\ &quot;pallet&quot;"/>
-    <numFmt numFmtId="225" formatCode="0\ &quot;pcs/Bag&quot;"/>
-    <numFmt numFmtId="226" formatCode="0.0\ &quot;g/m&quot;"/>
-    <numFmt numFmtId="230" formatCode="00"/>
-    <numFmt numFmtId="231" formatCode="0\ &quot;set/Box&quot;"/>
-    <numFmt numFmtId="232" formatCode="0\ \ &quot;Roll&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00\ &quot;kg&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.0\ &quot;g&quot;"/>
+    <numFmt numFmtId="180" formatCode="000"/>
+    <numFmt numFmtId="181" formatCode="0\ \ \ "/>
+    <numFmt numFmtId="182" formatCode="0.0\ &quot;kg/巻&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.0\ &quot;kg&quot;"/>
+    <numFmt numFmtId="184" formatCode="0\ \ \ &quot;m&quot;"/>
+    <numFmt numFmtId="185" formatCode="0\ \ \ &quot;pcs&quot;"/>
+    <numFmt numFmtId="186" formatCode="0\ \ &quot;Boxs&quot;"/>
+    <numFmt numFmtId="187" formatCode="0\ \ \ &quot;Pallets&quot;"/>
+    <numFmt numFmtId="188" formatCode="0\ \ &quot;kg&quot;"/>
+    <numFmt numFmtId="189" formatCode="0\ \ &quot;mm&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.0\ \ &quot;kg&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00\ \ &quot;kg&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.0_ "/>
+    <numFmt numFmtId="193" formatCode="0.00\ &quot;g&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.000\ &quot;$&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00\ &quot;CBM&quot;"/>
+    <numFmt numFmtId="196" formatCode="0\ &quot;本迄&quot;"/>
+    <numFmt numFmtId="197" formatCode="0\ &quot;m/roll&quot;"/>
+    <numFmt numFmtId="198" formatCode="0\ &quot;pcs/Box&quot;"/>
+    <numFmt numFmtId="199" formatCode="0\ \ &quot;g&quot;"/>
+    <numFmt numFmtId="200" formatCode="0\ &quot;bag/box&quot;"/>
+    <numFmt numFmtId="201" formatCode="0\ \ \ &quot;bag&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.0000\ &quot;$&quot;"/>
+    <numFmt numFmtId="203" formatCode="&quot;$&quot;\ \ \ 0.0000"/>
+    <numFmt numFmtId="204" formatCode="0.0000"/>
+    <numFmt numFmtId="205" formatCode="0\ &quot;pallet&quot;"/>
+    <numFmt numFmtId="206" formatCode="0\ &quot;pcs/Bag&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.0\ &quot;g/m&quot;"/>
+    <numFmt numFmtId="208" formatCode="00"/>
+    <numFmt numFmtId="209" formatCode="0\ &quot;set/Box&quot;"/>
+    <numFmt numFmtId="210" formatCode="0\ \ &quot;Roll&quot;"/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -2792,7 +2792,7 @@
     <xf numFmtId="176" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2931,31 +2931,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="193" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2964,19 +2964,19 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2985,25 +2985,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="194" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="201" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3027,13 +3027,13 @@
     <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="20" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -3042,22 +3042,22 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="202" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="204" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="202" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3075,10 +3075,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="201" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="223" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="204" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3096,7 +3096,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3105,13 +3105,13 @@
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="194" fontId="20" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3120,10 +3120,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="225" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="206" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3132,22 +3132,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="226" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3159,7 +3159,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3171,19 +3171,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="230" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="208" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="203" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="209" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3192,49 +3192,58 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="188" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3249,7 +3258,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="205" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="203" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3276,22 +3285,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3510,7 +3519,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="20" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3546,12 +3558,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="20" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="199" fontId="20" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3642,55 +3648,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="205" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="205" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="186" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="224" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="224" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="20" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="232" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="232" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="45" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="38" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="210" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="210" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4171,8 +4168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:J39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4190,67 +4187,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="8.25" customHeight="1">
-      <c r="A1" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
+      <c r="A1" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
     </row>
     <row r="2" spans="1:11" ht="7.5" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
     </row>
     <row r="4" spans="1:11" ht="4.5" customHeight="1">
-      <c r="A4" s="173"/>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
+      <c r="A4" s="176"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="176"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="G5" s="221" t="s">
+      <c r="G5" s="224" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="222"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
     </row>
     <row r="6" spans="1:11" ht="9.1999999999999993" customHeight="1"/>
     <row r="7" spans="1:11" ht="10.5" customHeight="1" thickBot="1"/>
@@ -4263,20 +4260,20 @@
       <c r="D8" s="24"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="181" t="s">
+      <c r="G8" s="184" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:11" ht="5.45" customHeight="1">
       <c r="A9" s="13"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="189"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" customHeight="1">
       <c r="A10" s="75" t="s">
@@ -4287,10 +4284,10 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="189"/>
     </row>
     <row r="11" spans="1:11" ht="13.5" customHeight="1">
       <c r="A11" s="73" t="s">
@@ -4301,14 +4298,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="74"/>
-      <c r="G11" s="187" t="s">
+      <c r="G11" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="188"/>
-      <c r="I11" s="191" t="s">
+      <c r="H11" s="191"/>
+      <c r="I11" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="176"/>
+      <c r="J11" s="179"/>
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="73" t="s">
@@ -4319,10 +4316,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="74"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="193"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="73" t="s">
@@ -4331,30 +4328,30 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="194" t="s">
+      <c r="E13" s="201"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="195"/>
-      <c r="I13" s="196" t="s">
+      <c r="H13" s="198"/>
+      <c r="I13" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="197"/>
+      <c r="J13" s="200"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="174" t="s">
+      <c r="E14" s="203"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="1:11" ht="13.5" customHeight="1">
       <c r="A15" s="15"/>
@@ -4363,12 +4360,12 @@
       <c r="D15" s="7"/>
       <c r="E15" s="76"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="204" t="s">
+      <c r="G15" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="205"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="206"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="209"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="28" t="s">
@@ -4379,28 +4376,28 @@
       <c r="D16" s="29"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="207"/>
-      <c r="J16" s="208"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:10" ht="13.5" hidden="1" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="89"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="1:10" ht="6" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="89"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="179"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
     </row>
     <row r="19" spans="1:10" ht="18.75">
       <c r="A19" s="75" t="s">
@@ -4410,10 +4407,10 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="211"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="214"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="73" t="s">
@@ -4441,14 +4438,14 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1">
-      <c r="A22" s="212" t="s">
+      <c r="A22" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
       <c r="D22" s="96"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="206"/>
       <c r="G22" s="82" t="s">
         <v>18</v>
       </c>
@@ -4458,14 +4455,14 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
       <c r="D23" s="96"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="206"/>
       <c r="G23" s="81"/>
       <c r="H23" t="s">
         <v>21</v>
@@ -4476,21 +4473,21 @@
     <row r="24" spans="1:10" ht="4.5" customHeight="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
       <c r="F24" s="8"/>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="18.75">
-      <c r="A25" s="226" t="s">
+      <c r="A25" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="224" t="s">
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="227" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="81"/>
@@ -4500,12 +4497,12 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="11.25" customHeight="1">
-      <c r="A26" s="228"/>
-      <c r="B26" s="229"/>
-      <c r="C26" s="229"/>
-      <c r="D26" s="229"/>
-      <c r="E26" s="229"/>
-      <c r="F26" s="224"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="232"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="227"/>
       <c r="G26" s="81"/>
       <c r="H26" s="102" t="s">
         <v>123</v>
@@ -4513,12 +4510,12 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A27" s="230"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="224"/>
+      <c r="A27" s="233"/>
+      <c r="B27" s="234"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="234"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="227"/>
       <c r="G27" s="81"/>
       <c r="H27" t="s">
         <v>25</v>
@@ -4526,12 +4523,12 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="6" customHeight="1" thickBot="1">
-      <c r="A28" s="232"/>
-      <c r="B28" s="233"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="225"/>
+      <c r="A28" s="235"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="228"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -4542,63 +4539,63 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A30" s="214" t="s">
+      <c r="A30" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="234" t="s">
+      <c r="B30" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="235" t="s">
+      <c r="C30" s="181"/>
+      <c r="D30" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="167" t="s">
+      <c r="E30" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="217" t="s">
+      <c r="F30" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="177" t="s">
+      <c r="G30" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="178"/>
-      <c r="I30" s="217" t="s">
+      <c r="H30" s="181"/>
+      <c r="I30" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="218"/>
+      <c r="J30" s="221"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="215"/>
-      <c r="B31" s="207"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="220"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="222"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="222"/>
+      <c r="J31" s="223"/>
     </row>
     <row r="32" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A32" s="216"/>
-      <c r="B32" s="207"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="220"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="222"/>
+      <c r="J32" s="223"/>
     </row>
     <row r="33" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A33" s="299" t="s">
+      <c r="A33" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="B33" s="150" t="s">
+      <c r="B33" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="151"/>
+      <c r="C33" s="154"/>
       <c r="D33" s="107"/>
       <c r="E33" s="90" t="str">
         <f>VLOOKUP(B33,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4607,25 +4604,25 @@
       <c r="F33" s="126">
         <v>4000</v>
       </c>
-      <c r="G33" s="152">
+      <c r="G33" s="155">
         <f>VLOOKUP(B33,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.61</v>
       </c>
-      <c r="H33" s="152"/>
-      <c r="I33" s="148">
+      <c r="H33" s="155"/>
+      <c r="I33" s="151">
         <f>IFERROR(G33*F33, "")</f>
         <v>2440</v>
       </c>
-      <c r="J33" s="149"/>
+      <c r="J33" s="152"/>
     </row>
     <row r="34" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A34" s="299" t="s">
+      <c r="A34" s="150" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="150" t="s">
+      <c r="B34" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="151"/>
+      <c r="C34" s="154"/>
       <c r="D34" s="107"/>
       <c r="E34" s="90" t="str">
         <f>VLOOKUP(B34,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4634,25 +4631,25 @@
       <c r="F34" s="126">
         <v>11000</v>
       </c>
-      <c r="G34" s="152">
+      <c r="G34" s="155">
         <f>VLOOKUP(B34,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.223</v>
       </c>
-      <c r="H34" s="152"/>
-      <c r="I34" s="148">
+      <c r="H34" s="155"/>
+      <c r="I34" s="151">
         <f t="shared" ref="I34:I45" si="0">IFERROR(G34*F34, "")</f>
         <v>2453</v>
       </c>
-      <c r="J34" s="149"/>
+      <c r="J34" s="152"/>
     </row>
     <row r="35" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A35" s="299" t="s">
+      <c r="A35" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="151"/>
+      <c r="C35" s="154"/>
       <c r="D35" s="107"/>
       <c r="E35" s="90" t="str">
         <f>VLOOKUP(B35,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4661,23 +4658,23 @@
       <c r="F35" s="122">
         <v>6000</v>
       </c>
-      <c r="G35" s="152">
+      <c r="G35" s="155">
         <f>VLOOKUP(B35,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.21299999999999999</v>
       </c>
-      <c r="H35" s="152"/>
-      <c r="I35" s="148">
+      <c r="H35" s="155"/>
+      <c r="I35" s="151">
         <f t="shared" si="0"/>
         <v>1278</v>
       </c>
-      <c r="J35" s="149"/>
+      <c r="J35" s="152"/>
     </row>
     <row r="36" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A36" s="297"/>
-      <c r="B36" s="150" t="s">
+      <c r="A36" s="148"/>
+      <c r="B36" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="151"/>
+      <c r="C36" s="154"/>
       <c r="D36" s="107"/>
       <c r="E36" s="90" t="str">
         <f>VLOOKUP(B36,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4686,23 +4683,23 @@
       <c r="F36" s="122">
         <v>5000</v>
       </c>
-      <c r="G36" s="152">
+      <c r="G36" s="155">
         <f>VLOOKUP(B36,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.223</v>
       </c>
-      <c r="H36" s="152"/>
-      <c r="I36" s="148">
+      <c r="H36" s="155"/>
+      <c r="I36" s="151">
         <f t="shared" si="0"/>
         <v>1115</v>
       </c>
-      <c r="J36" s="149"/>
+      <c r="J36" s="152"/>
     </row>
     <row r="37" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A37" s="297"/>
-      <c r="B37" s="150" t="s">
+      <c r="A37" s="148"/>
+      <c r="B37" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="151"/>
+      <c r="C37" s="154"/>
       <c r="D37" s="121"/>
       <c r="E37" s="90" t="str">
         <f>VLOOKUP(B37,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4711,23 +4708,23 @@
       <c r="F37" s="123">
         <v>11000</v>
       </c>
-      <c r="G37" s="152">
+      <c r="G37" s="155">
         <f>VLOOKUP(B37,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H37" s="152"/>
-      <c r="I37" s="148">
+      <c r="H37" s="155"/>
+      <c r="I37" s="151">
         <f t="shared" si="0"/>
         <v>2585</v>
       </c>
-      <c r="J37" s="149"/>
+      <c r="J37" s="152"/>
     </row>
     <row r="38" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A38" s="297"/>
-      <c r="B38" s="150" t="s">
+      <c r="A38" s="148"/>
+      <c r="B38" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="151"/>
+      <c r="C38" s="154"/>
       <c r="D38" s="107"/>
       <c r="E38" s="90" t="str">
         <f>VLOOKUP(B38,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4736,23 +4733,23 @@
       <c r="F38" s="122">
         <v>5500</v>
       </c>
-      <c r="G38" s="152">
+      <c r="G38" s="155">
         <f>VLOOKUP(B38,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.224</v>
       </c>
-      <c r="H38" s="152"/>
-      <c r="I38" s="148">
+      <c r="H38" s="155"/>
+      <c r="I38" s="151">
         <f t="shared" si="0"/>
         <v>1232</v>
       </c>
-      <c r="J38" s="149"/>
+      <c r="J38" s="152"/>
     </row>
     <row r="39" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A39" s="297"/>
-      <c r="B39" s="150" t="s">
+      <c r="A39" s="148"/>
+      <c r="B39" s="153" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="151"/>
+      <c r="C39" s="154"/>
       <c r="D39" s="107"/>
       <c r="E39" s="90" t="str">
         <f>VLOOKUP(B39,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4761,23 +4758,23 @@
       <c r="F39" s="122">
         <v>9000</v>
       </c>
-      <c r="G39" s="152">
+      <c r="G39" s="155">
         <f>VLOOKUP(B39,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.251</v>
       </c>
-      <c r="H39" s="152"/>
-      <c r="I39" s="148">
+      <c r="H39" s="155"/>
+      <c r="I39" s="151">
         <f t="shared" si="0"/>
         <v>2259</v>
       </c>
-      <c r="J39" s="149"/>
+      <c r="J39" s="152"/>
     </row>
     <row r="40" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A40" s="297"/>
-      <c r="B40" s="150" t="s">
+      <c r="A40" s="148"/>
+      <c r="B40" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="151"/>
+      <c r="C40" s="154"/>
       <c r="D40" s="107"/>
       <c r="E40" s="90" t="str">
         <f>VLOOKUP(B40,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4786,23 +4783,23 @@
       <c r="F40" s="122">
         <v>5500</v>
       </c>
-      <c r="G40" s="152">
+      <c r="G40" s="155">
         <f>VLOOKUP(B40,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.224</v>
       </c>
-      <c r="H40" s="152"/>
-      <c r="I40" s="148">
+      <c r="H40" s="155"/>
+      <c r="I40" s="151">
         <f t="shared" si="0"/>
         <v>1232</v>
       </c>
-      <c r="J40" s="149"/>
+      <c r="J40" s="152"/>
     </row>
     <row r="41" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A41" s="297"/>
-      <c r="B41" s="150" t="s">
+      <c r="A41" s="148"/>
+      <c r="B41" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="151"/>
+      <c r="C41" s="154"/>
       <c r="D41" s="121"/>
       <c r="E41" s="90" t="str">
         <f>VLOOKUP(B41,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4811,21 +4808,21 @@
       <c r="F41" s="122">
         <v>13500</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="155">
         <f>VLOOKUP(B41,データ!$B$3:$C$85,2,FALSE)</f>
         <v>0.224</v>
       </c>
-      <c r="H41" s="152"/>
-      <c r="I41" s="148">
+      <c r="H41" s="155"/>
+      <c r="I41" s="151">
         <f t="shared" si="0"/>
         <v>3024</v>
       </c>
-      <c r="J41" s="149"/>
+      <c r="J41" s="152"/>
     </row>
     <row r="42" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A42" s="297"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="151"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="154"/>
       <c r="D42" s="116"/>
       <c r="E42" s="90" t="e">
         <f>VLOOKUP(B42,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4834,21 +4831,21 @@
       <c r="F42" s="122">
         <v>13000</v>
       </c>
-      <c r="G42" s="152" t="e">
+      <c r="G42" s="155" t="e">
         <f>VLOOKUP(B42,データ!$B$3:$C$85,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H42" s="152"/>
-      <c r="I42" s="148" t="str">
+      <c r="H42" s="155"/>
+      <c r="I42" s="151" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J42" s="149"/>
+      <c r="J42" s="152"/>
     </row>
     <row r="43" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A43" s="297"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="151"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="154"/>
       <c r="D43" s="116"/>
       <c r="E43" s="90" t="e">
         <f>VLOOKUP(B43,データ!$B$3:$DH$185,11,FALSE)</f>
@@ -4857,21 +4854,21 @@
       <c r="F43" s="123">
         <v>7</v>
       </c>
-      <c r="G43" s="152" t="e">
+      <c r="G43" s="155" t="e">
         <f>VLOOKUP(B43,データ!$B$3:$C$185,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H43" s="152"/>
-      <c r="I43" s="148" t="str">
+      <c r="H43" s="155"/>
+      <c r="I43" s="151" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J43" s="149"/>
+      <c r="J43" s="152"/>
     </row>
     <row r="44" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A44" s="297"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="151"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="154"/>
       <c r="D44" s="116"/>
       <c r="E44" s="90" t="e">
         <f>VLOOKUP(B44,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4880,23 +4877,23 @@
       <c r="F44" s="122">
         <v>12000</v>
       </c>
-      <c r="G44" s="152" t="e">
+      <c r="G44" s="155" t="e">
         <f>VLOOKUP(B44,データ!$B$3:$C$85,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H44" s="152"/>
-      <c r="I44" s="148" t="str">
+      <c r="H44" s="155"/>
+      <c r="I44" s="151" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J44" s="149"/>
+      <c r="J44" s="152"/>
     </row>
     <row r="45" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A45" s="298"/>
-      <c r="B45" s="150" t="s">
+      <c r="A45" s="149"/>
+      <c r="B45" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="151"/>
+      <c r="C45" s="154"/>
       <c r="D45" s="116"/>
       <c r="E45" s="90" t="str">
         <f>VLOOKUP(B45,データ!$B$3:$L$85,11,FALSE)</f>
@@ -4905,68 +4902,68 @@
       <c r="F45" s="126">
         <v>240</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="155">
         <f>VLOOKUP(B45,データ!$B$3:$C$85,2,FALSE)</f>
         <v>2.875</v>
       </c>
-      <c r="H45" s="152"/>
-      <c r="I45" s="148">
+      <c r="H45" s="155"/>
+      <c r="I45" s="151">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="J45" s="149"/>
+      <c r="J45" s="152"/>
     </row>
     <row r="46" spans="1:10" ht="19.7" customHeight="1">
-      <c r="A46" s="157" t="s">
+      <c r="A46" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="158"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="153">
+      <c r="B46" s="161"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="156">
         <f>SUM(I33:K45)</f>
         <v>18308</v>
       </c>
-      <c r="J46" s="154"/>
+      <c r="J46" s="157"/>
     </row>
     <row r="47" spans="1:10" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A47" s="159"/>
-      <c r="B47" s="160"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="165"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="156"/>
+      <c r="A47" s="162"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="167"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="158"/>
+      <c r="J47" s="159"/>
     </row>
     <row r="48" spans="1:10" ht="11.25" customHeight="1"/>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="171" t="s">
+      <c r="A49" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="171"/>
-      <c r="C49" s="171"/>
+      <c r="B49" s="174"/>
+      <c r="C49" s="174"/>
       <c r="D49" s="98"/>
       <c r="F49" s="106"/>
-      <c r="G49" s="170" t="s">
+      <c r="G49" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="173"/>
       <c r="J49" s="64"/>
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="169" t="s">
+      <c r="A50" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
       <c r="D50" s="99"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
@@ -4975,9 +4972,9 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="168"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
+      <c r="A51" s="171"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
       <c r="D51" s="91"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
@@ -4985,9 +4982,9 @@
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="172"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="172"/>
+      <c r="A52" s="175"/>
+      <c r="B52" s="175"/>
+      <c r="C52" s="175"/>
       <c r="D52" s="97"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
@@ -4995,9 +4992,9 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="168"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
+      <c r="A53" s="171"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
       <c r="D53" s="91"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
@@ -5060,11 +5057,11 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G41:H41"/>
     <mergeCell ref="I46:J47"/>
     <mergeCell ref="A46:E47"/>
     <mergeCell ref="F46:H47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="B39:C39"/>
@@ -5072,9 +5069,9 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:H44"/>
     <mergeCell ref="B41:C41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
@@ -5109,8 +5106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5137,67 +5134,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
     </row>
     <row r="2" spans="1:11" ht="7.5" customHeight="1">
-      <c r="A2" s="253"/>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
+      <c r="A2" s="255"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
     </row>
     <row r="3" spans="1:11" ht="9.75" customHeight="1">
-      <c r="A3" s="253"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" hidden="1" customHeight="1">
-      <c r="A4" s="253"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="253"/>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="255"/>
+      <c r="C4" s="255"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="255"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="255"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="H5" s="275" t="str">
+      <c r="H5" s="277" t="str">
         <f>INVOICE!G5</f>
         <v>インボイス作成日（Date): 5/12/2025</v>
       </c>
-      <c r="I5" s="275"/>
-      <c r="J5" s="275"/>
-      <c r="K5" s="275"/>
+      <c r="I5" s="277"/>
+      <c r="J5" s="277"/>
+      <c r="K5" s="277"/>
     </row>
     <row r="7" spans="1:11" ht="9.75" customHeight="1" thickBot="1"/>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
@@ -5210,22 +5207,22 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="45"/>
-      <c r="H8" s="181" t="str">
+      <c r="H8" s="184" t="str">
         <f>INVOICE!G8</f>
         <v>Invoice No
 MASUDA VN-JP 019/25</v>
       </c>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="183"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="186"/>
     </row>
     <row r="9" spans="1:11" ht="9.75" customHeight="1">
       <c r="A9" s="25"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="186"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="189"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="A10" s="75" t="s">
@@ -5237,10 +5234,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="42"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="186"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="189"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="73" t="s">
@@ -5252,14 +5249,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="19"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="242" t="s">
+      <c r="H11" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="242"/>
-      <c r="J11" s="240" t="s">
+      <c r="I11" s="246"/>
+      <c r="J11" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="241"/>
+      <c r="K11" s="245"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="73" t="s">
@@ -5271,10 +5268,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="19"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="241"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="245"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="73" t="s">
@@ -5286,14 +5283,14 @@
       <c r="E13" s="63"/>
       <c r="F13" s="93"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="243" t="s">
+      <c r="H13" s="247" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="243"/>
-      <c r="J13" s="243" t="s">
+      <c r="I13" s="247"/>
+      <c r="J13" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="244"/>
+      <c r="K13" s="248"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="73" t="s">
@@ -5303,12 +5300,12 @@
       <c r="E14" s="41"/>
       <c r="F14" s="62"/>
       <c r="G14" s="43"/>
-      <c r="H14" s="245" t="s">
+      <c r="H14" s="249" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="245"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="246"/>
+      <c r="I14" s="249"/>
+      <c r="J14" s="249"/>
+      <c r="K14" s="250"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15" s="73"/>
@@ -5316,12 +5313,12 @@
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="43"/>
-      <c r="H15" s="255" t="s">
+      <c r="H15" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="257"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="259"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1">
       <c r="A16" s="26"/>
@@ -5331,10 +5328,10 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="255"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="258"/>
+      <c r="K16" s="259"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="28" t="s">
@@ -5346,10 +5343,10 @@
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="259"/>
-      <c r="J17" s="259"/>
-      <c r="K17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="262"/>
     </row>
     <row r="18" spans="1:18" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="30"/>
@@ -5405,11 +5402,11 @@
       <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="212" t="s">
+      <c r="A23" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="213"/>
-      <c r="C23" s="213"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
       <c r="D23" s="96"/>
       <c r="E23" s="63"/>
       <c r="F23" s="63"/>
@@ -5421,11 +5418,11 @@
       <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="263" t="s">
+      <c r="A24" s="265" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="264"/>
-      <c r="C24" s="264"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="266"/>
       <c r="D24" s="1"/>
       <c r="E24" s="63"/>
       <c r="F24" s="93"/>
@@ -5437,9 +5434,9 @@
     <row r="25" spans="1:18" ht="12.75" customHeight="1">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
+      <c r="C25" s="226"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="226"/>
       <c r="F25" s="27"/>
       <c r="G25" s="44"/>
       <c r="H25" s="81"/>
@@ -5449,15 +5446,15 @@
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:18" ht="18.75">
-      <c r="A26" s="226" t="s">
+      <c r="A26" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
-      <c r="F26" s="276"/>
-      <c r="G26" s="270" t="s">
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="278"/>
+      <c r="G26" s="272" t="s">
         <v>58</v>
       </c>
       <c r="H26" s="81"/>
@@ -5467,13 +5464,13 @@
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A27" s="228"/>
-      <c r="B27" s="229"/>
-      <c r="C27" s="229"/>
-      <c r="D27" s="229"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="271"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="273"/>
       <c r="H27" s="81"/>
       <c r="I27" t="s">
         <v>25</v>
@@ -5481,23 +5478,23 @@
       <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A28" s="230"/>
-      <c r="B28" s="231"/>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="271"/>
+      <c r="A28" s="233"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="270"/>
+      <c r="G28" s="273"/>
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="232"/>
-      <c r="B29" s="233"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="269"/>
-      <c r="G29" s="272"/>
+      <c r="A29" s="235"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="236"/>
+      <c r="E29" s="236"/>
+      <c r="F29" s="271"/>
+      <c r="G29" s="274"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -5512,48 +5509,48 @@
       <c r="F30" s="92"/>
     </row>
     <row r="31" spans="1:18" ht="15" customHeight="1">
-      <c r="A31" s="214" t="s">
+      <c r="A31" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="177" t="s">
+      <c r="B31" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="178"/>
-      <c r="D31" s="235" t="s">
+      <c r="C31" s="181"/>
+      <c r="D31" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="167" t="s">
+      <c r="E31" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="217" t="s">
+      <c r="F31" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="177" t="s">
+      <c r="G31" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="178"/>
-      <c r="I31" s="261" t="s">
+      <c r="H31" s="181"/>
+      <c r="I31" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="J31" s="235" t="s">
+      <c r="J31" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="K31" s="247" t="s">
+      <c r="K31" s="251" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="11.25" customHeight="1">
-      <c r="A32" s="265"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="262"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="248"/>
+      <c r="A32" s="267"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="222"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="264"/>
+      <c r="J32" s="254"/>
+      <c r="K32" s="252"/>
       <c r="L32" s="56"/>
       <c r="M32" s="56"/>
       <c r="N32" s="56"/>
@@ -5563,17 +5560,17 @@
       <c r="R32" s="56"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="265"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="262"/>
-      <c r="J33" s="250"/>
-      <c r="K33" s="248"/>
+      <c r="A33" s="267"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="264"/>
+      <c r="J33" s="254"/>
+      <c r="K33" s="252"/>
       <c r="L33" s="56"/>
       <c r="M33" s="57"/>
       <c r="N33" s="58"/>
@@ -5583,17 +5580,17 @@
       <c r="R33" s="60"/>
     </row>
     <row r="34" spans="1:18" ht="10.5" customHeight="1">
-      <c r="A34" s="266"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="254"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="262"/>
-      <c r="J34" s="250"/>
-      <c r="K34" s="249"/>
+      <c r="A34" s="268"/>
+      <c r="B34" s="182"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="276"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="275"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="264"/>
+      <c r="J34" s="254"/>
+      <c r="K34" s="253"/>
       <c r="L34" s="56"/>
       <c r="M34" s="132"/>
       <c r="N34" s="101"/>
@@ -5603,15 +5600,15 @@
       <c r="R34" s="60"/>
     </row>
     <row r="35" spans="1:18" ht="21" customHeight="1">
-      <c r="A35" s="297" t="str">
+      <c r="A35" s="148" t="str">
         <f>IF(INVOICE!A33 &lt;&gt; "", INVOICE!A33, "")</f>
         <v>1/3</v>
       </c>
-      <c r="B35" s="237" t="str">
+      <c r="B35" s="240" t="str">
         <f>INVOICE!B33</f>
         <v>TABLE EDGE MG23</v>
       </c>
-      <c r="C35" s="238"/>
+      <c r="C35" s="241"/>
       <c r="D35" s="107"/>
       <c r="E35" s="108" t="str">
         <f>INVOICE!E33</f>
@@ -5621,14 +5618,11 @@
         <f>INVOICE!F33</f>
         <v>4000</v>
       </c>
-      <c r="G35" s="251">
-        <f>_xlfn.XLOOKUP(B35, データ!B:B, データ!E:E, "")</f>
-        <v>50</v>
-      </c>
-      <c r="H35" s="252"/>
-      <c r="I35" s="124">
+      <c r="G35" s="242"/>
+      <c r="H35" s="243"/>
+      <c r="I35" s="124" t="str">
         <f>IFERROR(ROUNDUP(F35/G35,0), "")</f>
-        <v>80</v>
+        <v/>
       </c>
       <c r="J35" s="131"/>
       <c r="K35" s="113">
@@ -5644,15 +5638,15 @@
       <c r="R35" s="60"/>
     </row>
     <row r="36" spans="1:18" ht="21" customHeight="1">
-      <c r="A36" s="297" t="str">
+      <c r="A36" s="148" t="str">
         <f>IF(INVOICE!A34 &lt;&gt; "", INVOICE!A34, "")</f>
         <v>1/4</v>
       </c>
-      <c r="B36" s="237" t="str">
+      <c r="B36" s="240" t="str">
         <f>INVOICE!B34</f>
         <v>PUROTEKUTA 55788-16110</v>
       </c>
-      <c r="C36" s="238"/>
+      <c r="C36" s="241"/>
       <c r="D36" s="108"/>
       <c r="E36" s="108" t="str">
         <f>INVOICE!E34</f>
@@ -5662,14 +5656,11 @@
         <f>INVOICE!F34</f>
         <v>11000</v>
       </c>
-      <c r="G36" s="251">
-        <f>_xlfn.XLOOKUP(B36, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H36" s="252"/>
-      <c r="I36" s="124">
+      <c r="G36" s="242"/>
+      <c r="H36" s="243"/>
+      <c r="I36" s="124" t="str">
         <f t="shared" ref="I36:I47" si="0">IFERROR(ROUNDUP(F36/G36,0), "")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="J36" s="131"/>
       <c r="K36" s="113">
@@ -5685,15 +5676,15 @@
       <c r="R36" s="60"/>
     </row>
     <row r="37" spans="1:18" ht="21" customHeight="1">
-      <c r="A37" s="297" t="str">
+      <c r="A37" s="148" t="str">
         <f>IF(INVOICE!A35 &lt;&gt; "", INVOICE!A35, "")</f>
         <v>1/5</v>
       </c>
-      <c r="B37" s="237" t="str">
+      <c r="B37" s="240" t="str">
         <f>INVOICE!B35</f>
         <v>PUROTEKUTA 55788-52350</v>
       </c>
-      <c r="C37" s="238"/>
+      <c r="C37" s="241"/>
       <c r="D37" s="108"/>
       <c r="E37" s="108" t="str">
         <f>INVOICE!E35</f>
@@ -5703,14 +5694,11 @@
         <f>INVOICE!F35</f>
         <v>6000</v>
       </c>
-      <c r="G37" s="251">
-        <f>_xlfn.XLOOKUP(B37, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H37" s="252"/>
-      <c r="I37" s="124">
+      <c r="G37" s="242"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v/>
       </c>
       <c r="J37" s="131"/>
       <c r="K37" s="113">
@@ -5726,15 +5714,15 @@
       <c r="R37" s="60"/>
     </row>
     <row r="38" spans="1:18" ht="21" customHeight="1">
-      <c r="A38" s="297" t="str">
+      <c r="A38" s="148" t="str">
         <f>IF(INVOICE!A36 &lt;&gt; "", INVOICE!A36, "")</f>
         <v/>
       </c>
-      <c r="B38" s="237" t="str">
+      <c r="B38" s="240" t="str">
         <f>INVOICE!B36</f>
         <v>PUROTEKUTA 55788-52360</v>
       </c>
-      <c r="C38" s="238"/>
+      <c r="C38" s="241"/>
       <c r="D38" s="108"/>
       <c r="E38" s="108" t="str">
         <f>INVOICE!E36</f>
@@ -5744,14 +5732,11 @@
         <f>INVOICE!F36</f>
         <v>5000</v>
       </c>
-      <c r="G38" s="251">
-        <f>_xlfn.XLOOKUP(B38, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H38" s="252"/>
-      <c r="I38" s="124">
+      <c r="G38" s="242"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v/>
       </c>
       <c r="J38" s="131"/>
       <c r="K38" s="113">
@@ -5767,15 +5752,15 @@
       <c r="R38" s="60"/>
     </row>
     <row r="39" spans="1:18" ht="21" customHeight="1">
-      <c r="A39" s="297" t="str">
+      <c r="A39" s="148" t="str">
         <f>IF(INVOICE!A37 &lt;&gt; "", INVOICE!A37, "")</f>
         <v/>
       </c>
-      <c r="B39" s="237" t="str">
+      <c r="B39" s="240" t="str">
         <f>INVOICE!B37</f>
         <v>PUROTEKUTA 2A4P1-022G</v>
       </c>
-      <c r="C39" s="238"/>
+      <c r="C39" s="241"/>
       <c r="D39" s="121"/>
       <c r="E39" s="108" t="str">
         <f>INVOICE!E37</f>
@@ -5785,14 +5770,11 @@
         <f>INVOICE!F37</f>
         <v>11000</v>
       </c>
-      <c r="G39" s="251">
-        <f>_xlfn.XLOOKUP(B39, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H39" s="252"/>
-      <c r="I39" s="124">
+      <c r="G39" s="242"/>
+      <c r="H39" s="243"/>
+      <c r="I39" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v/>
       </c>
       <c r="J39" s="131"/>
       <c r="K39" s="113">
@@ -5808,15 +5790,15 @@
       <c r="R39" s="60"/>
     </row>
     <row r="40" spans="1:18" ht="21" customHeight="1">
-      <c r="A40" s="297" t="str">
+      <c r="A40" s="148" t="str">
         <f>IF(INVOICE!A38 &lt;&gt; "", INVOICE!A38, "")</f>
         <v/>
       </c>
-      <c r="B40" s="237" t="str">
+      <c r="B40" s="240" t="str">
         <f>INVOICE!B38</f>
         <v>PUROTEKUTA 55788-K0060</v>
       </c>
-      <c r="C40" s="238"/>
+      <c r="C40" s="241"/>
       <c r="E40" s="108" t="str">
         <f>INVOICE!E38</f>
         <v>pcs</v>
@@ -5825,14 +5807,11 @@
         <f>INVOICE!F38</f>
         <v>5500</v>
       </c>
-      <c r="G40" s="251">
-        <f>_xlfn.XLOOKUP(B40, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H40" s="252"/>
-      <c r="I40" s="124">
+      <c r="G40" s="242"/>
+      <c r="H40" s="243"/>
+      <c r="I40" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v/>
       </c>
       <c r="J40" s="131"/>
       <c r="K40" s="113">
@@ -5848,15 +5827,15 @@
       <c r="R40" s="60"/>
     </row>
     <row r="41" spans="1:18" ht="21" customHeight="1">
-      <c r="A41" s="297" t="str">
+      <c r="A41" s="148" t="str">
         <f>IF(INVOICE!A39 &lt;&gt; "", INVOICE!A39, "")</f>
         <v/>
       </c>
-      <c r="B41" s="237" t="str">
+      <c r="B41" s="240" t="str">
         <f>INVOICE!B39</f>
         <v>PUROTEKUTA 55788-48090</v>
       </c>
-      <c r="C41" s="238"/>
+      <c r="C41" s="241"/>
       <c r="D41" s="108"/>
       <c r="E41" s="108" t="str">
         <f>INVOICE!E39</f>
@@ -5866,14 +5845,11 @@
         <f>INVOICE!F39</f>
         <v>9000</v>
       </c>
-      <c r="G41" s="251">
-        <f>_xlfn.XLOOKUP(B41, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H41" s="252"/>
-      <c r="I41" s="124">
+      <c r="G41" s="242"/>
+      <c r="H41" s="243"/>
+      <c r="I41" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="J41" s="131"/>
       <c r="K41" s="113">
@@ -5889,15 +5865,15 @@
       <c r="R41" s="60"/>
     </row>
     <row r="42" spans="1:18" ht="21" customHeight="1">
-      <c r="A42" s="297" t="str">
+      <c r="A42" s="148" t="str">
         <f>IF(INVOICE!A40 &lt;&gt; "", INVOICE!A40, "")</f>
         <v/>
       </c>
-      <c r="B42" s="237" t="str">
+      <c r="B42" s="240" t="str">
         <f>INVOICE!B40</f>
         <v>PUROTEKUTA 55788-K0060</v>
       </c>
-      <c r="C42" s="238"/>
+      <c r="C42" s="241"/>
       <c r="D42" s="108"/>
       <c r="E42" s="108" t="str">
         <f>INVOICE!E40</f>
@@ -5907,14 +5883,11 @@
         <f>INVOICE!F40</f>
         <v>5500</v>
       </c>
-      <c r="G42" s="251">
-        <f>_xlfn.XLOOKUP(B42, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H42" s="252"/>
-      <c r="I42" s="124">
+      <c r="G42" s="242"/>
+      <c r="H42" s="243"/>
+      <c r="I42" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v/>
       </c>
       <c r="J42" s="131"/>
       <c r="K42" s="113">
@@ -5930,15 +5903,15 @@
       <c r="R42" s="60"/>
     </row>
     <row r="43" spans="1:18" ht="21" customHeight="1">
-      <c r="A43" s="297" t="str">
+      <c r="A43" s="148" t="str">
         <f>IF(INVOICE!A41 &lt;&gt; "", INVOICE!A41, "")</f>
         <v/>
       </c>
-      <c r="B43" s="237" t="str">
+      <c r="B43" s="240" t="str">
         <f>INVOICE!B41</f>
         <v>PUROTEKUTA 55788-K0060</v>
       </c>
-      <c r="C43" s="238"/>
+      <c r="C43" s="241"/>
       <c r="D43" s="108"/>
       <c r="E43" s="108" t="str">
         <f>INVOICE!E41</f>
@@ -5948,14 +5921,11 @@
         <f>INVOICE!F41</f>
         <v>13500</v>
       </c>
-      <c r="G43" s="251">
-        <f>_xlfn.XLOOKUP(B43, データ!B:B, データ!E:E, "")</f>
-        <v>500</v>
-      </c>
-      <c r="H43" s="252"/>
-      <c r="I43" s="124">
+      <c r="G43" s="242"/>
+      <c r="H43" s="243"/>
+      <c r="I43" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v/>
       </c>
       <c r="J43" s="131"/>
       <c r="K43" s="113">
@@ -5971,15 +5941,15 @@
       <c r="R43" s="60"/>
     </row>
     <row r="44" spans="1:18" ht="21" customHeight="1">
-      <c r="A44" s="297" t="str">
+      <c r="A44" s="148" t="str">
         <f>IF(INVOICE!A42 &lt;&gt; "", INVOICE!A42, "")</f>
         <v/>
       </c>
-      <c r="B44" s="237">
+      <c r="B44" s="240">
         <f>INVOICE!B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="238"/>
+      <c r="C44" s="241"/>
       <c r="D44" s="108"/>
       <c r="E44" s="108" t="e">
         <f>INVOICE!E42</f>
@@ -5989,11 +5959,8 @@
         <f>INVOICE!F42</f>
         <v>13000</v>
       </c>
-      <c r="G44" s="251" t="str">
-        <f>_xlfn.XLOOKUP(B44, データ!B:B, データ!E:E, "")</f>
-        <v/>
-      </c>
-      <c r="H44" s="252"/>
+      <c r="G44" s="242"/>
+      <c r="H44" s="243"/>
       <c r="I44" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6012,15 +5979,15 @@
       <c r="R44" s="60"/>
     </row>
     <row r="45" spans="1:18" ht="21" customHeight="1">
-      <c r="A45" s="297" t="str">
+      <c r="A45" s="148" t="str">
         <f>IF(INVOICE!A43 &lt;&gt; "", INVOICE!A43, "")</f>
         <v/>
       </c>
-      <c r="B45" s="237">
+      <c r="B45" s="240">
         <f>INVOICE!B43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="238"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="108"/>
       <c r="E45" s="108" t="e">
         <f>INVOICE!E43</f>
@@ -6030,11 +5997,8 @@
         <f>INVOICE!F43</f>
         <v>7</v>
       </c>
-      <c r="G45" s="251" t="str">
-        <f>_xlfn.XLOOKUP(B45, データ!B:B, データ!E:E, "")</f>
-        <v/>
-      </c>
-      <c r="H45" s="252"/>
+      <c r="G45" s="242"/>
+      <c r="H45" s="243"/>
       <c r="I45" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6053,15 +6017,15 @@
       <c r="R45" s="60"/>
     </row>
     <row r="46" spans="1:18" ht="21" customHeight="1">
-      <c r="A46" s="297" t="str">
+      <c r="A46" s="148" t="str">
         <f>IF(INVOICE!A44 &lt;&gt; "", INVOICE!A44, "")</f>
         <v/>
       </c>
-      <c r="B46" s="237">
+      <c r="B46" s="240">
         <f>INVOICE!B44</f>
         <v>0</v>
       </c>
-      <c r="C46" s="238"/>
+      <c r="C46" s="241"/>
       <c r="D46" s="108"/>
       <c r="E46" s="108" t="e">
         <f>INVOICE!E44</f>
@@ -6071,11 +6035,8 @@
         <f>INVOICE!F44</f>
         <v>12000</v>
       </c>
-      <c r="G46" s="251" t="str">
-        <f>_xlfn.XLOOKUP(B46, データ!B:B, データ!E:E, "")</f>
-        <v/>
-      </c>
-      <c r="H46" s="252"/>
+      <c r="G46" s="242"/>
+      <c r="H46" s="243"/>
       <c r="I46" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6094,15 +6055,15 @@
       <c r="R46" s="60"/>
     </row>
     <row r="47" spans="1:18" ht="21" customHeight="1">
-      <c r="A47" s="297" t="str">
+      <c r="A47" s="148" t="str">
         <f>IF(INVOICE!A45 &lt;&gt; "", INVOICE!A45, "")</f>
         <v/>
       </c>
-      <c r="B47" s="237" t="str">
+      <c r="B47" s="240" t="str">
         <f>INVOICE!B45</f>
         <v>TABLE EDGE MI3 156</v>
       </c>
-      <c r="C47" s="238"/>
+      <c r="C47" s="241"/>
       <c r="D47" s="127"/>
       <c r="E47" s="108" t="str">
         <f>INVOICE!E45</f>
@@ -6112,14 +6073,11 @@
         <f>INVOICE!F45</f>
         <v>240</v>
       </c>
-      <c r="G47" s="251">
-        <f>_xlfn.XLOOKUP(B47, データ!B:B, データ!E:E, "")</f>
-        <v>30</v>
-      </c>
-      <c r="H47" s="252"/>
-      <c r="I47" s="124">
+      <c r="G47" s="242"/>
+      <c r="H47" s="243"/>
+      <c r="I47" s="124" t="str">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="J47" s="131"/>
       <c r="K47" s="113">
@@ -6136,13 +6094,13 @@
     </row>
     <row r="48" spans="1:18" ht="21" customHeight="1">
       <c r="A48" s="120"/>
-      <c r="B48" s="237"/>
-      <c r="C48" s="238"/>
+      <c r="B48" s="240"/>
+      <c r="C48" s="241"/>
       <c r="D48" s="125"/>
       <c r="E48" s="108"/>
       <c r="F48" s="111"/>
-      <c r="G48" s="239"/>
-      <c r="H48" s="292"/>
+      <c r="G48" s="242"/>
+      <c r="H48" s="294"/>
       <c r="I48" s="124"/>
       <c r="J48" s="119"/>
       <c r="K48" s="113"/>
@@ -6154,28 +6112,28 @@
       <c r="R48" s="60"/>
     </row>
     <row r="49" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A49" s="278" t="s">
+      <c r="A49" s="280" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="200"/>
-      <c r="C49" s="200"/>
-      <c r="D49" s="200"/>
-      <c r="E49" s="201"/>
-      <c r="F49" s="283">
+      <c r="B49" s="203"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="285">
         <f>SUMIF(E35:E48,L42,F35:F48)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="285"/>
-      <c r="H49" s="201"/>
-      <c r="I49" s="293">
+      <c r="G49" s="287"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="295">
         <f>SUMIF(E35:E48,L42,I35:I48)+SUMIF(E35:E48,L44,I35:I48)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="288">
+      <c r="J49" s="290">
         <f>SUM(J35:J48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="290">
+      <c r="K49" s="292">
         <f>SUM(K35:K48)</f>
         <v>240</v>
       </c>
@@ -6185,60 +6143,60 @@
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" ht="3.75" customHeight="1">
-      <c r="A50" s="279"/>
-      <c r="B50" s="200"/>
-      <c r="C50" s="200"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="284"/>
-      <c r="G50" s="285"/>
-      <c r="H50" s="201"/>
-      <c r="I50" s="294"/>
-      <c r="J50" s="288"/>
-      <c r="K50" s="290"/>
+      <c r="A50" s="281"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="286"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="296"/>
+      <c r="J50" s="290"/>
+      <c r="K50" s="292"/>
       <c r="M50" s="132"/>
       <c r="N50" s="101"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" ht="18" customHeight="1">
-      <c r="A51" s="279"/>
-      <c r="B51" s="200"/>
-      <c r="C51" s="200"/>
-      <c r="D51" s="200"/>
-      <c r="E51" s="201"/>
+      <c r="A51" s="281"/>
+      <c r="B51" s="203"/>
+      <c r="C51" s="203"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="204"/>
       <c r="F51" s="129">
         <f>SUMIF(E35:E48,L43,F35:F48)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="285"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="295">
+      <c r="G51" s="287"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="297">
         <f>SUMIF(E35:E48,L43,I35:I48)</f>
         <v>0</v>
       </c>
-      <c r="J51" s="288"/>
-      <c r="K51" s="290"/>
+      <c r="J51" s="290"/>
+      <c r="K51" s="292"/>
       <c r="M51" s="1"/>
       <c r="N51" s="101"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" ht="21" customHeight="1" thickBot="1">
-      <c r="A52" s="280"/>
-      <c r="B52" s="281"/>
-      <c r="C52" s="281"/>
-      <c r="D52" s="281"/>
-      <c r="E52" s="282"/>
+      <c r="A52" s="282"/>
+      <c r="B52" s="283"/>
+      <c r="C52" s="283"/>
+      <c r="D52" s="283"/>
+      <c r="E52" s="284"/>
       <c r="F52" s="130">
         <f>SUMIF(E35:E48,L44,F35:F48)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="286"/>
-      <c r="H52" s="282"/>
-      <c r="I52" s="296"/>
-      <c r="J52" s="289"/>
-      <c r="K52" s="291"/>
+      <c r="G52" s="288"/>
+      <c r="H52" s="284"/>
+      <c r="I52" s="298"/>
+      <c r="J52" s="291"/>
+      <c r="K52" s="293"/>
       <c r="M52" s="1"/>
       <c r="N52" s="101"/>
       <c r="O52" s="1"/>
@@ -6251,8 +6209,8 @@
       </c>
       <c r="B53" s="1"/>
       <c r="F53" s="94"/>
-      <c r="I53" s="287"/>
-      <c r="J53" s="200"/>
+      <c r="I53" s="289"/>
+      <c r="J53" s="203"/>
       <c r="M53" s="84"/>
       <c r="N53" s="57"/>
     </row>
@@ -6272,11 +6230,11 @@
         <f>F52</f>
         <v>0</v>
       </c>
-      <c r="I54" s="170" t="s">
+      <c r="I54" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="173"/>
       <c r="M54" s="95"/>
       <c r="N54" s="57"/>
     </row>
@@ -6318,9 +6276,9 @@
       <c r="N57" s="57"/>
     </row>
     <row r="58" spans="1:16" ht="80.25" customHeight="1">
-      <c r="A58" s="277"/>
-      <c r="B58" s="277"/>
-      <c r="C58" s="277"/>
+      <c r="A58" s="279"/>
+      <c r="B58" s="279"/>
+      <c r="C58" s="279"/>
       <c r="D58" s="100"/>
     </row>
     <row r="71" spans="5:12">
@@ -6585,6 +6543,9 @@
     <mergeCell ref="G49:H52"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="A1:K4"/>
     <mergeCell ref="E31:E34"/>
     <mergeCell ref="H15:K17"/>
@@ -6611,29 +6572,26 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="H8:K10"/>
     <mergeCell ref="J11:K12"/>
     <mergeCell ref="H11:I12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G38:H38"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.16" right="0" top="0" bottom="0" header="0" footer="0"/>
